--- a/biology/Médecine/Intoxication_professionnelle_au_tétrachloréthane/Intoxication_professionnelle_au_tétrachloréthane.xlsx
+++ b/biology/Médecine/Intoxication_professionnelle_au_tétrachloréthane/Intoxication_professionnelle_au_tétrachloréthane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication au tétrachloréthane soit reconnue comme maladie professionnelle en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,24 +523,193 @@
           <t>Législation en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime général
-Données professionnelles
-Il était autrefois largement utilisé comme solvant et comme intermédiaire de synthèse dans la production industrielle du trichloréthylène, du tétrachloroéthylène et du 1,2-dichloroéthylène[2]. Toutefois, le 1,1,2,2-tétrachloroéthane n'est plus beaucoup utilisé aux États-Unis en raison d'inquiétudes au sujet de sa toxicité[3].
-Données médicales
-L’exposition chronique par inhalation, aux vapeurs de 1,1,2,2-tétrachloroéthane induit principalement des effets sur le foie et le système nerveux central.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était autrefois largement utilisé comme solvant et comme intermédiaire de synthèse dans la production industrielle du trichloréthylène, du tétrachloroéthylène et du 1,2-dichloroéthylène. Toutefois, le 1,1,2,2-tétrachloroéthane n'est plus beaucoup utilisé aux États-Unis en raison d'inquiétudes au sujet de sa toxicité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exposition chronique par inhalation, aux vapeurs de 1,1,2,2-tétrachloroéthane induit principalement des effets sur le foie et le système nerveux central.
 L’hépatotoxicité du 1,1,2,2-tétrachloroéthane a été décrite dans plusieurs études anciennes
-réalisées en milieu professionnel. Bien que les niveaux d’exposition soient rarement spécifiés, plusieurs cas d’ictère, d’hépatite ou d'hépatomégalie ont été répertoriés chez l'homme (Coyer, 1944[4]) ; Horiguchi et al., 1964[5] ; Jeney et al.[6] ; Koelsch, 1915[7]).
-Des signes neurologiques de la toxicité du 1,1,2,2- tétrachloroéthane tels que maux de tête, tremblements, étourdissements, apathie et somnolence, troubles sensitivo-moteurs (polynévrites) ont également été mentionnés à plusieurs reprises dans des études anciennes, réalisées en milieu professionnel (Hamilton, 1917[8] ; Minot et Smith, 1921[9] ; Parmenter, 1921[10] ; Jeney et al., 1957[11]).
-Risque cancérogène
-Dans un groupe de 1 099 travailleurs exposés à des vapeurs de 1,1,2,2-tétrachloroéthane une augmentation de la mortalité a été signalée et bien que non significative sur le plan statistique elle serait attribuable à des cancers des organes génitaux, à des leucémies et à d’autres cancers des tissus lymphatiques(Norman et al., 1981[12]). Les résultats sont cependant difficiles à interpréter en l'absence de mesure des niveaux d'exposition car les salariés ont pu être exposés à d'autres agents chimiques.
-Le 1,1,2,2-Tetrachloroethane est classé dans le groupe 3 du Centre international de recherche sur le cancer (ne peut pas être classé pour sa cancérogénité chez l’homme), mais l'Agence de protection de l'environnement des États-Unis (EPA) l’a répertorié comme cancérigène possible pour l'homme (Groupe C)[3].
-Etiquetage Phrases de risque et conseils de prudence selon la Classification UE
+réalisées en milieu professionnel. Bien que les niveaux d’exposition soient rarement spécifiés, plusieurs cas d’ictère, d’hépatite ou d'hépatomégalie ont été répertoriés chez l'homme (Coyer, 1944) ; Horiguchi et al., 1964 ; Jeney et al. ; Koelsch, 1915).
+Des signes neurologiques de la toxicité du 1,1,2,2- tétrachloroéthane tels que maux de tête, tremblements, étourdissements, apathie et somnolence, troubles sensitivo-moteurs (polynévrites) ont également été mentionnés à plusieurs reprises dans des études anciennes, réalisées en milieu professionnel (Hamilton, 1917 ; Minot et Smith, 1921 ; Parmenter, 1921 ; Jeney et al., 1957).
 </t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Risque cancérogène</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un groupe de 1 099 travailleurs exposés à des vapeurs de 1,1,2,2-tétrachloroéthane une augmentation de la mortalité a été signalée et bien que non significative sur le plan statistique elle serait attribuable à des cancers des organes génitaux, à des leucémies et à d’autres cancers des tissus lymphatiques(Norman et al., 1981). Les résultats sont cependant difficiles à interpréter en l'absence de mesure des niveaux d'exposition car les salariés ont pu être exposés à d'autres agents chimiques.
+Le 1,1,2,2-Tetrachloroethane est classé dans le groupe 3 du Centre international de recherche sur le cancer (ne peut pas être classé pour sa cancérogénité chez l’homme), mais l'Agence de protection de l'environnement des États-Unis (EPA) l’a répertorié comme cancérigène possible pour l'homme (Groupe C).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_tétrachloréthane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_t%C3%A9trachlor%C3%A9thane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Etiquetage Phrases de risque et conseils de prudence selon la Classification UE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
